--- a/protobuff/backup/Privilege/peakArena.xlsx
+++ b/protobuff/backup/Privilege/peakArena.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\server\protobuff\backup\Privilege\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44280" yWindow="620" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="44280" yWindow="615" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="peakArenaPrivilegeProperties" sheetId="3" r:id="rId1"/>
@@ -25,7 +30,7 @@
     <author>dragon li</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>vip1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,9 +122,6 @@
     <t>今日竞技场门票购买次数已用完，大神，您已经无法再增加购买次数。</t>
   </si>
   <si>
-    <t>今日竞技场门票购买次数已用完，{buyCharge}可以增加购买次数。</t>
-  </si>
-  <si>
     <t>开启重置巅峰竞技场CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,82 +175,73 @@
     <t>enableTip</t>
   </si>
   <si>
-    <t>VIP1开启重置竞技场CD功能，前往充值提升VIP等级。</t>
+    <t>monthNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthVip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日巅峰竞技场门票购买次数已用完，{buyCharge}可以增加购买次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启重置巅峰竞技场CD功能，充值可提升VIP等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP4开启购买巅峰竞技场门票功能，充值可提升VIP等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthNormal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthVip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级到VIP可增加购买竞技场门票次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,11 +314,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -337,7 +339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +363,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,28 +371,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -718,97 +730,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F6" sqref="F5:F6"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="57.5" customWidth="1"/>
+    <col min="6" max="6" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -816,43 +831,39 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="F9" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -871,198 +882,258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/protobuff/backup/Privilege/peakArena.xlsx
+++ b/protobuff/backup/Privilege/peakArena.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44280" yWindow="615" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="44280" yWindow="615" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="peakArenaPrivilegeProperties" sheetId="3" r:id="rId1"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日巅峰竞技场门票购买次数已用完，{buyCharge}可以增加购买次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP3开启重置巅峰竞技场CD功能，充值可提升VIP等级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +231,10 @@
   </si>
   <si>
     <t>vip15</t>
+  </si>
+  <si>
+    <t>今日巅峰竞技场门票购买次数已用完，提高VIP等级可以增加购买次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -834,13 +834,13 @@
         <v>999</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -853,7 +853,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -882,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -974,7 +974,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>13</v>
